--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279496.1823597067</v>
+        <v>277608.6008433045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>552694.2476401818</v>
+        <v>589669.002288082</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>171.6795400528108</v>
+        <v>73.52907136089628</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>70.26541886851867</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>64.44476794285909</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>13.53541314334576</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>42.93165166918609</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.657053251779067</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>271.8706113332679</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>93.25488834459158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>88.7069554109369</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.1870135173248</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722604</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>85.42291167995835</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>75.21353697368323</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174112</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>134.4442626460252</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869246</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>176.8688121773844</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>118.4898845065123</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92969084765553</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>187.8326399421076</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>58.42670163899131</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>24.62163952773189</v>
+        <v>55.21598883571473</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523581</v>
+        <v>54.76109577523554</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329079</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1919.063478780785</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2292.529237041865</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="V2" t="n">
-        <v>2292.529237041865</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="W2" t="n">
-        <v>2292.529237041865</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="X2" t="n">
-        <v>1919.063478780785</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="Y2" t="n">
-        <v>1919.063478780785</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>124.9181523946257</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>124.9181523946257</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>124.9181523946257</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>124.9181523946257</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>593.7883833041373</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>593.7883833041373</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1487.242648509747</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1487.242648509747</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1487.242648509747</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1101.454395911503</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>690.4684911218951</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>272.504683020082</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2683.476956529994</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2352.414069186424</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1999.645413916309</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.30828653671404</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347314</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347314</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>97.30828653671404</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.30828653671404</v>
+        <v>498.1369047015218</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1448.521729839487</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1079.559212899076</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>721.2935142923252</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>335.505261694081</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>328.5597609448775</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2153.11138992122</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2153.11138992122</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2153.11138992122</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>2153.11138992122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.521729839487</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005476</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C10" t="n">
-        <v>473.4444960005476</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D10" t="n">
-        <v>473.4444960005476</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E10" t="n">
-        <v>325.5314024181545</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F10" t="n">
-        <v>325.5314024181545</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005476</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5033,25 +5033,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>577.324810152946</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>897.6601296826478</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.0375086983736</v>
+        <v>467.9934022109765</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246783</v>
+        <v>467.9934022109765</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123425</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241921</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688035</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799328</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="V13" t="n">
-        <v>955.103143565574</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286134</v>
+        <v>1098.423997082764</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286133</v>
+        <v>870.4344461847463</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286133</v>
+        <v>649.6418670412162</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5270,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5309,10 +5309,10 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5343,34 +5343,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1609.589088435861</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402494</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>819.0123268140192</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,13 +5744,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765184</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>496.6650364395579</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5972,22 +5972,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6066,19 +6066,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>370.3315586295562</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L24" t="n">
-        <v>370.3315586295562</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M24" t="n">
-        <v>1138.699705022018</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="O24" t="n">
         <v>1808.163466324677</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1443.431734348149</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1243.511724263702</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1019.726309053207</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.726309053207</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V28" t="n">
-        <v>765.0418208473204</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W28" t="n">
-        <v>475.6246508103599</v>
+        <v>506.855107188543</v>
       </c>
       <c r="X28" t="n">
-        <v>247.6350999123425</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.6350999123425</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,19 +6455,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6552,13 +6552,13 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607.5569798833405</v>
+        <v>604.5641438163808</v>
       </c>
       <c r="C31" t="n">
-        <v>494.3816622368043</v>
+        <v>545.5472734739653</v>
       </c>
       <c r="D31" t="n">
-        <v>400.0258881058393</v>
+        <v>451.1914993430006</v>
       </c>
       <c r="E31" t="n">
-        <v>307.873659804817</v>
+        <v>451.1914993430006</v>
       </c>
       <c r="F31" t="n">
-        <v>216.7445775882768</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="G31" t="n">
-        <v>216.7445775882768</v>
+        <v>247.6479607276531</v>
       </c>
       <c r="H31" t="n">
-        <v>122.0874344175908</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667515</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962059</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096193</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1503.284906591122</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.361283666605</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>1070.704978911016</v>
+        <v>902.6804289818958</v>
       </c>
       <c r="X31" t="n">
-        <v>898.4762932943689</v>
+        <v>730.4517433652495</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.4445794322096</v>
+        <v>730.4517433652495</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6838,10 +6838,10 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,13 +6892,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010318</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,16 +6926,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>426.2666988653375</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1040.163768622226</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1808.531915014687</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7163,16 +7163,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,13 +7351,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,16 +7567,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,7 +9729,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>306.5962005683625</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10209,7 +10209,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>442.7621507817987</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11397,7 +11397,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>81.82390941866949</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>73.40193604452912</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338589</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>91.26539274301192</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841046</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338569</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>48.84084321165275</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>48.84084321165278</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>79.43092547709095</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.03466155613728</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>64.30500338172044</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>53.61686283107926</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>30.59434930798311</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="F2" t="n">
-        <v>293271.7948032813</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="G2" t="n">
         <v>293271.7948032813</v>
@@ -26332,22 +26332,22 @@
         <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
-        <v>293271.7948032816</v>
+        <v>293271.7948032813</v>
       </c>
       <c r="J2" t="n">
-        <v>293271.7948032813</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089523</v>
+        <v>305116.6030089526</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="O2" t="n">
         <v>307890.6636991063</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284583</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086694</v>
+        <v>10342.90680086671</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284579</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575885</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905759512</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758822</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758901</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758824</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758629</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477247</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189637</v>
       </c>
-      <c r="O4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-503995.4327594668</v>
+        <v>-503995.4327594667</v>
       </c>
       <c r="C6" t="n">
-        <v>85972.4464550777</v>
+        <v>85972.44645507779</v>
       </c>
       <c r="D6" t="n">
-        <v>85972.44645507785</v>
+        <v>85972.44645507773</v>
       </c>
       <c r="E6" t="n">
-        <v>-324663.3613129071</v>
+        <v>-324760.8204388793</v>
       </c>
       <c r="F6" t="n">
-        <v>200496.6751639888</v>
+        <v>200399.2160380167</v>
       </c>
       <c r="G6" t="n">
-        <v>200496.6751639888</v>
+        <v>200399.2160380167</v>
       </c>
       <c r="H6" t="n">
-        <v>200496.6751639889</v>
+        <v>200399.2160380167</v>
       </c>
       <c r="I6" t="n">
-        <v>200496.6751639891</v>
+        <v>200399.2160380166</v>
       </c>
       <c r="J6" t="n">
-        <v>24073.45597139589</v>
+        <v>23975.99684542383</v>
       </c>
       <c r="K6" t="n">
-        <v>145373.3729711116</v>
+        <v>145354.8792331771</v>
       </c>
       <c r="L6" t="n">
-        <v>176626.0701463176</v>
+        <v>176626.0701463177</v>
       </c>
       <c r="M6" t="n">
-        <v>52167.96171334734</v>
+        <v>52167.96171334729</v>
       </c>
       <c r="N6" t="n">
-        <v>186968.9769471845</v>
+        <v>186968.9769471844</v>
       </c>
       <c r="O6" t="n">
         <v>186968.9769471845</v>
       </c>
       <c r="P6" t="n">
-        <v>142806.3716443388</v>
+        <v>142806.3716443386</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,16 +26756,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855729</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108339</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855729</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>79.54462745547852</v>
+        <v>177.695096147393</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>64.70020292381956</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.525803443317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>259.4780048214981</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>237.6887543649435</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>124.3151694294417</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.0526021372581</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>141.9135586875271</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>157.9692791636977</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78.60284684811401</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>5.848091940759474</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.406874616804998e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-3.516712846855323e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31844,31 +31844,31 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>252.6713260851627</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>319.6115048322624</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9375118102116744</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>319.6115048322624</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32312,28 +32312,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,22 +32786,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2494011226595</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32813,10 +32813,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,7 +33032,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
         <v>224.6051223555648</v>
@@ -33050,10 +33050,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33272,7 +33272,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33281,7 +33281,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>37.74832847964836</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33971,28 +33971,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>48.48571443651716</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34135,7 +34135,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34469,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>484.9572916087477</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>667.6121670924827</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556199</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>324.5085416381933</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>667.6121670924827</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>275.8731991608792</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>163.9999561239181</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>572.6057846157851</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>274.515464094862</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412277</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.428956600432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>164.372126517868</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>175.1095124747368</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>311.4204386984654</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
